--- a/FMS.Website/files_upload/masterSetting.xlsx
+++ b/FMS.Website/files_upload/masterSetting.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vox\task\fms021020170830\hms-fms\FMS.Website\files_upload\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="600" windowWidth="19815" windowHeight="7365"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Setting Group</t>
   </si>
@@ -25,149 +30,65 @@
     <t>Setting Value</t>
   </si>
   <si>
-    <t>Function Niya</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
-    <t>BENEFIT</t>
-  </si>
-  <si>
-    <t>Benefit</t>
-  </si>
-  <si>
-    <t>WTC</t>
-  </si>
-  <si>
     <t>COP</t>
   </si>
   <si>
-    <t>CFM</t>
-  </si>
-  <si>
-    <t>AS_ENTITLED</t>
-  </si>
-  <si>
-    <t>As Entitled</t>
-  </si>
-  <si>
     <t>FLEXY_BENEFIT</t>
   </si>
   <si>
-    <t>Flexy Benefit</t>
-  </si>
-  <si>
     <t>PROJECT1</t>
   </si>
   <si>
     <t>Project 1</t>
   </si>
   <si>
-    <t>PROJECT2</t>
-  </si>
-  <si>
-    <t>Project 2</t>
-  </si>
-  <si>
     <t>LEASE</t>
   </si>
   <si>
     <t>Lease</t>
   </si>
   <si>
-    <t>SERVICE</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>ACTIVE</t>
-  </si>
-  <si>
-    <t>CFM_IDLE</t>
-  </si>
-  <si>
-    <t>CFM Idle</t>
-  </si>
-  <si>
-    <t>PMI ID UR 3066 OPS FMS ADMINISTRATOR QA IMDL</t>
-  </si>
-  <si>
-    <t>PMI ID UR 3066 OPS FMS VIEWER QA IMDL</t>
-  </si>
-  <si>
-    <t>PMI ID UR 3066 OPS FMS HR QA IMDL</t>
-  </si>
-  <si>
-    <t>PMI ID UR 3066 OPS FMS FLEET QA IMDL</t>
-  </si>
-  <si>
-    <t>SETTING GROUP 1</t>
-  </si>
-  <si>
-    <t>SETTING GROUP 2</t>
-  </si>
-  <si>
-    <t>SETTING GROUP 3</t>
-  </si>
-  <si>
-    <t>SETTING GROUP 4</t>
-  </si>
-  <si>
-    <t>SETTING GROUP 5</t>
-  </si>
-  <si>
-    <t>SETTING GROUP 6</t>
-  </si>
-  <si>
-    <t>SETTING GROUP 7</t>
-  </si>
-  <si>
-    <t>SETTING GROUP 8</t>
-  </si>
-  <si>
-    <t>SETTING GROUP 9</t>
-  </si>
-  <si>
-    <t>SETTING GROUP 10</t>
-  </si>
-  <si>
-    <t>SETTING GROUP 11</t>
-  </si>
-  <si>
-    <t>SETTING GROUP 12</t>
-  </si>
-  <si>
-    <t>SETTING GROUP 13</t>
-  </si>
-  <si>
-    <t>SETTING GROUP 14</t>
-  </si>
-  <si>
-    <t>SETTING GROUP 15</t>
-  </si>
-  <si>
-    <t>SETTING GROUP 16</t>
-  </si>
-  <si>
-    <t>SETTING GROUP 17</t>
-  </si>
-  <si>
-    <t>SETTING GROUP 18</t>
-  </si>
-  <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>VEHICLE_USAGE_BENEFIT</t>
+  </si>
+  <si>
+    <t>VEHICLE_USAGE_WTC</t>
+  </si>
+  <si>
+    <t>VEHICLE_CATEGORY</t>
+  </si>
+  <si>
+    <t>PROJECT</t>
+  </si>
+  <si>
+    <t>SUPPLY_METHOD</t>
+  </si>
+  <si>
+    <t>BODY_TYPE</t>
+  </si>
+  <si>
+    <t>Flexi Benefit</t>
+  </si>
+  <si>
+    <t>SPV</t>
+  </si>
+  <si>
+    <t>FOREKLIFT</t>
+  </si>
+  <si>
+    <t>Foreklift</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +164,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -530,20 +459,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,256 +483,164 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="D19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
